--- a/portfolio/TorchLight_steam/TorchLight_QA.xlsx
+++ b/portfolio/TorchLight_steam/TorchLight_QA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyady\OneDrive - 아주대학교\바탕 화면\QA\portfolio\QA_tutorial\portfolio\TorchLight_steam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20147A31-9986-4C42-865A-EDFEF04B424D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F097B95A-FCC7-4CE7-ACB7-E2F066696AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6B756C7B-BEF3-4E22-B6D4-092AD684D2F7}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="352">
   <si>
     <t>ID</t>
   </si>
@@ -252,10 +252,6 @@
   </si>
   <si>
     <t>다운로드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>실행 이전</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -325,10 +321,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>기본 흐름</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -428,10 +420,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>닉네임 설정 후 '게임시작'(중복체크?)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>시네마틱 시청</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -808,6 +796,736 @@
   </si>
   <si>
     <t>[메인 스토리]빛을 잃은 나라 - 버려진 광산으로 이동한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>토치라이트 인피니트 다운로드 후 약 1시간 플레이를 녹화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이를 기반으로 유즈케이스 TC작성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체적으로 번역?이 자연스럽지 않거나, 더빙과 자막이 불일치하는 부분들이 많았음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>극초반 튜토리얼존?에서 네비게이션 오류 등</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC판에서 스페이스바나 엔터로 대사를 넘기는 경우등 발견</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>토치라이트 메인로비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 흐름(시나리오  S0)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스팀 로컬 파일 보기 
+게임 파일 삭제
+스팀 라이브러리 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>설치 버튼(정상인식)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스팀 로그인
+d드라이브에 게임 설치
+게임 실행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스팀 로컬 파일 보기
+게임 파일 삭제
+스팀 라이브러리 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 실행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버 선택</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">공지사항 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아시아서버 선택</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미국 서버로 변경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임시작, 서버 선택됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임시작
+메인로비 진입
+서버선택</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 로비 아시아서버 및 핑 표시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 시작
+메인 로비 진입
+선택된 서버 클릭
+미국 서버로 변경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 최초 실행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 로비 미국 서버 및 핑 표시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>바로 캐릭터 선택창으로 이동됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>p</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아시아서버 재선택</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>타서버 선택됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인로비
+서버 클릭
+아시아서버로 변경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인로비 공지사항 표시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임실행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인로비 공지사항 팝업</t>
+  </si>
+  <si>
+    <t>공지사항 끄기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 다시표시 안하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 표시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>x버튼 공지사항 팝업 사라짐
+서버변경시 공지사항 다시 출력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버변경시 공지사항 출력 x</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항
+더 이상 보지 않기 체크
+x를 눌러 팝업 해제
+서버변경을 통해 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 팝업
+더 이상 보지 않기 체크 해제
+ x를 눌러 팝업 해제
+서버 병경을 통해 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 더 이상 보지 않기 자동 체크 되어있음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버 변경시 잠깐만 출력, 바로 캐릭터 선택창으로 넘어가버려서 공지사항 사라짐
+사라진 공지사항 팝업창은 메인로비로 돌아가면 떠있는 상태</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실행 이전
+다운로드,삭제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 생성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">더보기 버튼 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>더보기 버튼 클릭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인로비 입장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인로비 우측상단 더보기버튼
+클릭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정 센터
+고객 센터
+계정 삭제
+로그 아웃 버튼 정상표시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객 센터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정 삭제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정 센터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그 아웃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>더보기버튼 클릭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정 삭제 클릭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면비율이 맞지 않는 안내창, 다시 메인로비로 돌아갈 수 없음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>안내창 정상 표시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정 센터 클릭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객 센터 클릭</t>
+  </si>
+  <si>
+    <t>로그 아웃 클릭</t>
+  </si>
+  <si>
+    <t>로그아웃 후 로그인 페이지 표시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임종료 버튼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임종료 버튼 클릭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 로비 입장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인로비 우측 하단 게임종료버튼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임종료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로비 버튼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 선택창</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>애니메이션</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 생성화면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 선택화면 입장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 생성화면 입장가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>디바인샷 카리노 최초클릭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빙여술사 젬마 최초클릭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시송산의 증인 유가 최초클릭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지휘관 모토 최초클릭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 선택화면에서 바로 최초선택 애니메이션 재생
+이후 대기 애니메이션 재생</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>버서커 리한 다음단계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>버서커 리한 선택</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>디바인샷 카리노 선택</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빙염술사 젬마 선택</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시공간의 증인 유가 선택</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지휘관 모토 선택</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>디바인샷 카리노 다음단계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빙염술사 젬마 다음단계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시공간의 증인 유가 다음단계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지휘관 모토 다음단계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>버서커 리한 선택
+다음단계 버튼 클릭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>버서커리한 캐릭터 설명화면
+히어로특성 요약, 스킬활용 장면
+자세히보기 버튼 새로 생김</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다비인샷 카리노 선택
+다음단계 버튼 클릭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빙염술사 젬마 선택
+다음단계 버튼 클릭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시공간의 증인 유가 선택
+다음단계 버튼 클릭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지휘관 모토 선택
+다음단계 버튼 클릭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>디바인샷 카리노 캐릭터 설명화면
+히어로특성 요약, 스킬활용 장면
+자세히보기 버튼 새로 생김</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빙염술사 젬마 캐릭터 설명화면
+히어로특성 요약, 스킬활용 장면
+자세히보기 버튼 새로 생김</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시공간의 증인 유가 캐릭터 설명화면
+히어로특성 요약, 스킬활용 장면
+자세히보기 버튼 새로 생김</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지휘관 모토 캐릭터 설명화면
+히어로특성 요약, 스킬활용 장면
+자세히보기 버튼 새로 생김</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>히어로 특성 요약 이해 가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 설명
+자세히보기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>버서커 리한 자세히보기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>디바인샷 카리노 자세히보기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빙염술사 젬마 자세히보기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시공간의 증인 유가 자세히보기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지휘관 모토 자세히보기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 셜명화면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자세히보기 클릭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>히어로 특성 분노 상세설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>히어로 특성 영광의 레인저 상세설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>히어로 특성 빙화융합 상세설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>히어로 특성 비틀어진 시공간 상세설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>히어로 특성 지휘관 상세설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨별
+ 히어로특성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>버서커 리한 레벨별 히어로 특성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>디바인샷 카리노 레벨별 히어로 특성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빙염술사 젬마 레벨별 히어로 특성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시공간의 증인 유가 레벨별 히어로 특성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지휘관 모토 레벨별 히어로 특성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>히어로 특성 화면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌측 히어로 특성 클릭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨별 히어로특성 부가효과 안내</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>버서커 리한
+레벨별 히어로 특성 화면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>버서커 리한 히어로특성
+타오르는 분노 설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>버서커 리한 히어로특성
+뜨거운 분노 설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>버서커 리한 히어로특성
+참을 수 없는 분노 설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>버서커 리한 히어로특성
+흩날리는 마음 설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>버서커 리한 히어로특성
+치우치는 마음 설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>버서커 리한 히어로특성
+들끓는 분노 설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>버서커 리한 히어로특성
+메아리 설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>버서커 리한 히어로특성
+분노의 죄악 설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>타오르는 분노 클릭
+파란글씨 클릭
+파란글씨 추가설명 확인
+미리보기모드 버튼 클릭
+미리보기 설명 확인</t>
+  </si>
+  <si>
+    <t>타오르는 분노 클릭
+파란글씨 클릭
+파란글씨 추가설명 확인
+미리보기모드 버튼 클릭
+미리보기 설명 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뜨거운 분노 클릭
+파란글씨 클릭
+파란글씨 추가설명 확인
+미리보기모드 버튼 클릭
+미리보기 설명 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>참을 수 없는 분노 클릭
+파란글씨 클릭
+파란글씨 추가설명 확인
+미리보기모드 버튼 클릭
+미리보기 설명 확인</t>
+  </si>
+  <si>
+    <t>흩날리는 마음 클릭
+파란글씨 클릭
+파란글씨 추가설명 확인
+미리보기모드 버튼 클릭
+미리보기 설명 확인</t>
+  </si>
+  <si>
+    <t>치우치는 마음 클릭
+파란글씨 클릭
+파란글씨 추가설명 확인
+미리보기모드 버튼 클릭
+미리보기 설명 확인</t>
+  </si>
+  <si>
+    <t>들끓는 분노 클릭
+파란글씨 클릭
+파란글씨 추가설명 확인
+미리보기모드 버튼 클릭
+미리보기 설명 확인</t>
+  </si>
+  <si>
+    <t>메아리 클릭
+파란글씨 클릭
+파란글씨 추가설명 확인
+미리보기모드 버튼 클릭
+미리보기 설명 확인</t>
+  </si>
+  <si>
+    <t>스킬 설명, 효과 일치는 나중에 자동화테스팅 익히면 수행해보자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">스킬설명 모순 없음
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭발 범위25%감소, 폭발 데미지 추가 -25%로 표기 되어 있음
+범위 인지 데미지인지 명세는 알 수 없지만 모순</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>버서커 리한 캐릭터 생성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">다음단계 클릭
+넥네임 정하기
+!@!@!@!@!@!@!@
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>!@!@!@!@!@!@!캐릭터생성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 14글자 안내만 있지만 특수문자를 사용할 수 없었다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">다음단계 클릭
+닉네임 설정
+CYADY
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CYADY캐릭터 생성
+시네마틱 시작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 생성 화면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인스토리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>닉네임 설정 후 '게임시작'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시네마틱/대화
+/혼자말</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투필드/마을</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상호작용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>포탈/전송장치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 처치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 드롭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -864,7 +1582,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -946,6 +1664,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -955,7 +1710,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -995,20 +1750,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1424,33 +2224,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A86339-3AD4-420B-BB2E-2BA3BD194658}">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="13.625" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="1" max="1" width="5.875" customWidth="1"/>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
+    <col min="3" max="3" width="12.375" customWidth="1"/>
     <col min="4" max="4" width="11.625" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
     <col min="6" max="6" width="23.375" customWidth="1"/>
     <col min="7" max="7" width="25.5" customWidth="1"/>
-    <col min="8" max="8" width="19.875" customWidth="1"/>
+    <col min="8" max="8" width="31.25" customWidth="1"/>
     <col min="9" max="9" width="18.25" customWidth="1"/>
-    <col min="10" max="10" width="11.375" customWidth="1"/>
-    <col min="11" max="12" width="10.375" customWidth="1"/>
+    <col min="10" max="10" width="9.5" customWidth="1"/>
+    <col min="11" max="11" width="10.375" customWidth="1"/>
+    <col min="12" max="12" width="63.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="B1" t="s">
         <v>54</v>
       </c>
-      <c r="B1" t="s">
-        <v>65</v>
+      <c r="C1" t="s">
+        <v>64</v>
       </c>
       <c r="M1">
         <v>1</v>
@@ -1460,11 +2262,11 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>53</v>
       </c>
-      <c r="B2" t="s">
-        <v>92</v>
+      <c r="C2" t="s">
+        <v>90</v>
       </c>
       <c r="M2">
         <v>2</v>
@@ -1539,253 +2341,1563 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+    <row r="6" spans="1:16" s="11" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
         <v>0</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+    </row>
+    <row r="7" spans="1:16" s="11" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" spans="1:16" s="11" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
+        <v>1</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F8" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G8" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+    </row>
+    <row r="9" spans="1:16" s="11" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+    </row>
+    <row r="10" spans="1:16" s="11" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+    </row>
+    <row r="11" spans="1:16" s="11" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="11" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="9"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="11" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="11" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+    </row>
+    <row r="16" spans="1:16" s="11" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+    </row>
+    <row r="17" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+    </row>
+    <row r="18" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+    </row>
+    <row r="19" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="9"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A20" s="9"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+    </row>
+    <row r="21" spans="1:12" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A21" s="9"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+    </row>
+    <row r="22" spans="1:12" s="11" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="28"/>
+      <c r="B22" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+    </row>
+    <row r="23" spans="1:12" s="11" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="28"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+    </row>
+    <row r="24" spans="1:12" s="11" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="28"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+    </row>
+    <row r="25" spans="1:12" s="11" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="28"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+    </row>
+    <row r="26" spans="1:12" s="11" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="28"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+    </row>
+    <row r="27" spans="1:12" s="11" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="28"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="11" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="28"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="11" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="28"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="29"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="29"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="29"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+      <c r="A33" s="29"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+      <c r="A34" s="29"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+      <c r="A35" s="29"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="29"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+      <c r="A37" s="29"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+    </row>
+    <row r="38" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+      <c r="A38" s="29"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="24" t="s">
+        <v>304</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+      <c r="A39" s="25"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="I39" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+    </row>
+    <row r="40" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+      <c r="A40" s="25"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="I40" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+    </row>
+    <row r="41" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+      <c r="A41" s="25"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="I41" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="1:12" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A42" s="25"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="F42" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="H42" s="24" t="s">
+        <v>331</v>
+      </c>
+      <c r="I42" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="30" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A43" s="25"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="F43" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="H43" s="24" t="s">
+        <v>331</v>
+      </c>
+      <c r="I43" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+    </row>
+    <row r="44" spans="1:12" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A44" s="25"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="24" t="s">
+        <v>316</v>
+      </c>
+      <c r="F44" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="H44" s="24" t="s">
+        <v>331</v>
+      </c>
+      <c r="I44" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+    </row>
+    <row r="45" spans="1:12" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A45" s="25"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="24" t="s">
+        <v>317</v>
+      </c>
+      <c r="F45" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="H45" s="24" t="s">
+        <v>331</v>
+      </c>
+      <c r="I45" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+    </row>
+    <row r="46" spans="1:12" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A46" s="25"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="24" t="s">
+        <v>318</v>
+      </c>
+      <c r="F46" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="H46" s="24" t="s">
+        <v>331</v>
+      </c>
+      <c r="I46" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="9" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A47" s="25"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="24" t="s">
+        <v>319</v>
+      </c>
+      <c r="F47" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="H47" s="24" t="s">
+        <v>331</v>
+      </c>
+      <c r="I47" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+    </row>
+    <row r="48" spans="1:12" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A48" s="25"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="F48" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="H48" s="24" t="s">
+        <v>331</v>
+      </c>
+      <c r="I48" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+    </row>
+    <row r="49" spans="1:12" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A49" s="25"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="24" t="s">
+        <v>321</v>
+      </c>
+      <c r="F49" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="H49" s="24" t="s">
+        <v>331</v>
+      </c>
+      <c r="I49" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+    </row>
+    <row r="50" spans="1:12" ht="66" x14ac:dyDescent="0.3">
+      <c r="A50" s="25"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="D50" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="E50" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="F50" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="H50" s="32" t="s">
+        <v>335</v>
+      </c>
+      <c r="I50" s="30" t="s">
+        <v>312</v>
+      </c>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="30" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="66" x14ac:dyDescent="0.3">
+      <c r="A51" s="25"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="F51" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="H51" s="24" t="s">
+        <v>338</v>
+      </c>
+      <c r="I51" s="30" t="s">
+        <v>287</v>
+      </c>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+    </row>
+    <row r="52" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A52" s="25"/>
+      <c r="B52" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>342</v>
+      </c>
+      <c r="D52" s="25"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="25"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53" s="25"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="25"/>
+      <c r="K53" s="25"/>
+      <c r="L53" s="25"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54" s="25"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="D54" s="25"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="25"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55" s="25"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="25"/>
+      <c r="K55" s="25"/>
+      <c r="L55" s="25"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56" s="25"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="D56" s="25"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="27"/>
+      <c r="J56" s="25"/>
+      <c r="K56" s="25"/>
+      <c r="L56" s="25"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57" s="25"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="25"/>
+      <c r="K57" s="25"/>
+      <c r="L57" s="25"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58" s="25"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="D58" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="25"/>
+      <c r="K58" s="25"/>
+      <c r="L58" s="25"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59" s="25"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="26"/>
+      <c r="I59" s="27"/>
+      <c r="J59" s="25"/>
+      <c r="K59" s="25"/>
+      <c r="L59" s="25"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A60" s="25"/>
+      <c r="B60" s="25" t="s">
+        <v>347</v>
+      </c>
+      <c r="C60" s="27" t="s">
+        <v>348</v>
+      </c>
+      <c r="D60" s="27"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="26"/>
+      <c r="I60" s="27"/>
+      <c r="J60" s="25"/>
+      <c r="K60" s="25"/>
+      <c r="L60" s="25"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A61" s="25"/>
+      <c r="C61" s="27" t="s">
+        <v>349</v>
+      </c>
+      <c r="D61" s="25"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="26"/>
+      <c r="I61" s="27"/>
+      <c r="J61" s="25"/>
+      <c r="K61" s="25"/>
+      <c r="L61" s="25"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A62" s="25"/>
+      <c r="B62" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C62" s="27"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="26"/>
+      <c r="I62" s="27"/>
+      <c r="J62" s="25"/>
+      <c r="K62" s="25"/>
+      <c r="L62" s="25"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63" s="25"/>
+      <c r="B63" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="C63" s="27"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="26"/>
+      <c r="I63" s="27"/>
+      <c r="J63" s="25"/>
+      <c r="K63" s="25"/>
+      <c r="L63" s="25"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A64" s="25"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="27"/>
+      <c r="J64" s="25"/>
+      <c r="K64" s="25"/>
+      <c r="L64" s="25"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A65" s="25"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="26"/>
+      <c r="I65" s="27"/>
+      <c r="J65" s="25"/>
+      <c r="K65" s="25"/>
+      <c r="L65" s="25"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A66" s="25"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="26"/>
+      <c r="I66" s="27"/>
+      <c r="J66" s="25"/>
+      <c r="K66" s="25"/>
+      <c r="L66" s="25"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A67" s="25"/>
+      <c r="B67" s="25"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="26"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="26"/>
+      <c r="I67" s="27"/>
+      <c r="J67" s="25"/>
+      <c r="K67" s="25"/>
+      <c r="L67" s="25"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A68" s="25"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="26"/>
+      <c r="I68" s="27"/>
+      <c r="J68" s="25"/>
+      <c r="K68" s="25"/>
+      <c r="L68" s="25"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A69" s="25"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="25"/>
+      <c r="K69" s="25"/>
+      <c r="L69" s="25"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A70" s="25"/>
+      <c r="B70" s="25"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="25"/>
+      <c r="K70" s="25"/>
+      <c r="L70" s="25"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A71" s="25"/>
+      <c r="E71" s="26"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B72" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A73">
         <v>1</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18" s="12" t="s">
+      <c r="B73" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A74">
         <v>2</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B74" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A75">
         <v>3</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B75" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A76">
         <v>4</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B76" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A77">
         <v>5</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B22:F22"/>
+  <mergeCells count="22">
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="B22:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="D37:D49"/>
+    <mergeCell ref="D32:D36"/>
+    <mergeCell ref="C22:C49"/>
+    <mergeCell ref="B75:F75"/>
+    <mergeCell ref="B76:F76"/>
     <mergeCell ref="D6:D9"/>
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B72:F72"/>
+    <mergeCell ref="B73:F73"/>
+    <mergeCell ref="B74:F74"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="D16:D20"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="B10:B21"/>
+    <mergeCell ref="D22:D26"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1794,8 +3906,8 @@
   <dimension ref="A2:F121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <pane ySplit="9" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1809,13 +3921,36 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
+      <c r="B2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1823,13 +3958,13 @@
         <v>-1</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1837,13 +3972,13 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C11">
         <v>1.1000000000000001</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1852,13 +3987,13 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E12">
         <v>2.2000000000000002</v>
       </c>
       <c r="F12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -1867,16 +4002,16 @@
         <v>3</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C13">
         <v>3.1</v>
       </c>
       <c r="D13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1885,13 +4020,13 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C14">
         <v>3.2</v>
       </c>
       <c r="D14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -1900,7 +4035,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1909,7 +4044,7 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1918,7 +4053,7 @@
         <v>7</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1927,7 +4062,7 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1936,7 +4071,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -1945,7 +4080,7 @@
         <v>10</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D20" s="11"/>
     </row>
@@ -1955,7 +4090,7 @@
         <v>11</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1964,7 +4099,7 @@
         <v>12</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1973,7 +4108,7 @@
         <v>13</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1982,7 +4117,7 @@
         <v>14</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1991,7 +4126,7 @@
         <v>15</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -2000,7 +4135,7 @@
         <v>16</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>98</v>
+        <v>341</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -2009,10 +4144,10 @@
         <v>17</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D27" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -2021,7 +4156,7 @@
         <v>18</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -2030,7 +4165,7 @@
         <v>19</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -2039,7 +4174,7 @@
         <v>20</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -2048,7 +4183,7 @@
         <v>21</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -2057,7 +4192,7 @@
         <v>22</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -2066,7 +4201,7 @@
         <v>23</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="33" x14ac:dyDescent="0.3">
@@ -2075,7 +4210,7 @@
         <v>24</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -2084,7 +4219,7 @@
         <v>25</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -2093,7 +4228,7 @@
         <v>26</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -2102,7 +4237,7 @@
         <v>27</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -2111,7 +4246,7 @@
         <v>28</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -2120,7 +4255,7 @@
         <v>29</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -2129,7 +4264,7 @@
         <v>30</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -2138,7 +4273,7 @@
         <v>31</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="33" x14ac:dyDescent="0.3">
@@ -2147,7 +4282,7 @@
         <v>32</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="33" x14ac:dyDescent="0.3">
@@ -2156,7 +4291,7 @@
         <v>33</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -2165,7 +4300,7 @@
         <v>34</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -2174,7 +4309,7 @@
         <v>35</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -2183,7 +4318,7 @@
         <v>36</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="33" x14ac:dyDescent="0.3">
@@ -2192,7 +4327,7 @@
         <v>37</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -2201,7 +4336,7 @@
         <v>38</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -2210,7 +4345,7 @@
         <v>39</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -2219,7 +4354,7 @@
         <v>40</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -2228,7 +4363,7 @@
         <v>41</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -2237,7 +4372,7 @@
         <v>42</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -2246,7 +4381,7 @@
         <v>43</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -2255,7 +4390,7 @@
         <v>44</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -2264,7 +4399,7 @@
         <v>45</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -2273,7 +4408,7 @@
         <v>46</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -2282,7 +4417,7 @@
         <v>47</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -2291,7 +4426,7 @@
         <v>48</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -2300,7 +4435,7 @@
         <v>49</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -2309,7 +4444,7 @@
         <v>50</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -2318,7 +4453,7 @@
         <v>51</v>
       </c>
       <c r="B61" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -2327,7 +4462,7 @@
         <v>52</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -2336,7 +4471,7 @@
         <v>53</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -2345,16 +4480,16 @@
         <v>54</v>
       </c>
       <c r="B64" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -2363,7 +4498,7 @@
         <v>56</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -2372,7 +4507,7 @@
         <v>57</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -2381,16 +4516,16 @@
         <v>58</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -2399,7 +4534,7 @@
         <v>60</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -2408,7 +4543,7 @@
         <v>61</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -2417,7 +4552,7 @@
         <v>62</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -2426,7 +4561,7 @@
         <v>63</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -2435,7 +4570,7 @@
         <v>64</v>
       </c>
       <c r="B74" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -2444,7 +4579,7 @@
         <v>65</v>
       </c>
       <c r="B75" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -2453,7 +4588,7 @@
         <v>66</v>
       </c>
       <c r="B76" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -2462,7 +4597,7 @@
         <v>67</v>
       </c>
       <c r="B77" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -2471,7 +4606,7 @@
         <v>68</v>
       </c>
       <c r="B78" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -2480,7 +4615,7 @@
         <v>69</v>
       </c>
       <c r="B79" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -2489,7 +4624,7 @@
         <v>70</v>
       </c>
       <c r="B80" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -2498,7 +4633,7 @@
         <v>71</v>
       </c>
       <c r="B81" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -2507,7 +4642,7 @@
         <v>72</v>
       </c>
       <c r="B82" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -2516,7 +4651,7 @@
         <v>73</v>
       </c>
       <c r="B83" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -2525,7 +4660,7 @@
         <v>74</v>
       </c>
       <c r="B84" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -2534,7 +4669,7 @@
         <v>75</v>
       </c>
       <c r="B85" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -2543,7 +4678,7 @@
         <v>76</v>
       </c>
       <c r="B86" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -2552,7 +4687,7 @@
         <v>77</v>
       </c>
       <c r="B87" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -2561,7 +4696,7 @@
         <v>78</v>
       </c>
       <c r="B88" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -2570,7 +4705,7 @@
         <v>79</v>
       </c>
       <c r="B89" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -2579,7 +4714,7 @@
         <v>80</v>
       </c>
       <c r="B90" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -2588,7 +4723,7 @@
         <v>81</v>
       </c>
       <c r="B91" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -2597,7 +4732,7 @@
         <v>82</v>
       </c>
       <c r="B92" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -2606,7 +4741,7 @@
         <v>83</v>
       </c>
       <c r="B93" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -2615,7 +4750,7 @@
         <v>84</v>
       </c>
       <c r="B94" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -2624,7 +4759,7 @@
         <v>85</v>
       </c>
       <c r="B95" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -2633,7 +4768,7 @@
         <v>86</v>
       </c>
       <c r="B96" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -2642,7 +4777,7 @@
         <v>87</v>
       </c>
       <c r="B97" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -2651,7 +4786,7 @@
         <v>88</v>
       </c>
       <c r="B98" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -2660,7 +4795,7 @@
         <v>89</v>
       </c>
       <c r="B99" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -2669,7 +4804,7 @@
         <v>90</v>
       </c>
       <c r="B100" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
@@ -2678,7 +4813,7 @@
         <v>91</v>
       </c>
       <c r="B101" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
@@ -2687,7 +4822,7 @@
         <v>92</v>
       </c>
       <c r="B102" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
@@ -2696,7 +4831,7 @@
         <v>93</v>
       </c>
       <c r="B103" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
@@ -2705,7 +4840,7 @@
         <v>94</v>
       </c>
       <c r="B104" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -2714,7 +4849,7 @@
         <v>95</v>
       </c>
       <c r="B105" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -2723,7 +4858,7 @@
         <v>96</v>
       </c>
       <c r="B106" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
@@ -2732,7 +4867,7 @@
         <v>97</v>
       </c>
       <c r="B107" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
@@ -2741,7 +4876,7 @@
         <v>98</v>
       </c>
       <c r="B108" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
@@ -2750,7 +4885,7 @@
         <v>99</v>
       </c>
       <c r="B109" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -2759,7 +4894,7 @@
         <v>100</v>
       </c>
       <c r="B110" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
@@ -2768,7 +4903,7 @@
         <v>101</v>
       </c>
       <c r="B111" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
@@ -2777,7 +4912,7 @@
         <v>102</v>
       </c>
       <c r="B112" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
@@ -2786,7 +4921,7 @@
         <v>103</v>
       </c>
       <c r="B113" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
@@ -2795,7 +4930,7 @@
         <v>104</v>
       </c>
       <c r="B114" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
@@ -2804,7 +4939,7 @@
         <v>105</v>
       </c>
       <c r="B115" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
@@ -2813,7 +4948,7 @@
         <v>106</v>
       </c>
       <c r="B116" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
@@ -2822,7 +4957,7 @@
         <v>107</v>
       </c>
       <c r="B117" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
@@ -2831,7 +4966,7 @@
         <v>108</v>
       </c>
       <c r="B118" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
@@ -2840,7 +4975,7 @@
         <v>109</v>
       </c>
       <c r="B119" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
@@ -2849,7 +4984,7 @@
         <v>110</v>
       </c>
       <c r="B120" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
@@ -2858,7 +4993,7 @@
         <v>111</v>
       </c>
       <c r="B121" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -2905,61 +5040,61 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3034,7 +5169,7 @@
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="16"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="2" t="s">
         <v>32</v>
       </c>
@@ -3047,7 +5182,7 @@
         <f t="shared" ref="A7:A19" si="0">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="16"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="2" t="s">
         <v>34</v>
       </c>
@@ -3060,7 +5195,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="16"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="2" t="s">
         <v>33</v>
       </c>
@@ -3069,34 +5204,34 @@
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="17">
+      <c r="A9" s="16">
         <f>A8+1</f>
         <v>5</v>
       </c>
-      <c r="B9" s="16"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
-      <c r="B10" s="16"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <f>A9+1</f>
         <v>6</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -3111,7 +5246,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B12" s="16"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="2" t="s">
         <v>38</v>
       </c>
@@ -3124,7 +5259,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B13" s="16"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="2" t="s">
         <v>39</v>
       </c>
@@ -3137,7 +5272,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B14" s="16"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="2" t="s">
         <v>40</v>
       </c>
@@ -3150,7 +5285,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B15" s="16"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="2" t="s">
         <v>41</v>
       </c>
@@ -3163,7 +5298,7 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -3178,7 +5313,7 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B17" s="16"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="2" t="s">
         <v>43</v>
       </c>
@@ -3191,7 +5326,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B18" s="16"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="2" t="s">
         <v>44</v>
       </c>
@@ -3200,54 +5335,61 @@
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="17">
+      <c r="A19" s="16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
-      <c r="B20" s="16"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="17">
+      <c r="A21" s="16">
         <v>15</v>
       </c>
-      <c r="B21" s="16"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
-      <c r="B22" s="16"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="F21:F22"/>
@@ -3257,13 +5399,6 @@
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="E21:E22"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/portfolio/TorchLight_steam/TorchLight_QA.xlsx
+++ b/portfolio/TorchLight_steam/TorchLight_QA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyady\OneDrive - 아주대학교\바탕 화면\QA\portfolio\QA_tutorial\portfolio\TorchLight_steam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyady\Desktop\project\QA\QA_tutorial\portfolio\TorchLight_steam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F097B95A-FCC7-4CE7-ACB7-E2F066696AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6933F5A-9DFD-4CEA-B8CA-76824BF8A80C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6B756C7B-BEF3-4E22-B6D4-092AD684D2F7}"/>
   </bookViews>
@@ -1710,7 +1710,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1747,29 +1747,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1780,35 +1771,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2345,13 +2324,13 @@
       <c r="A6" s="9">
         <v>0</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="22" t="s">
         <v>55</v>
       </c>
       <c r="E6" s="9" t="s">
@@ -2377,9 +2356,9 @@
       <c r="A7" s="9">
         <v>0.1</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
       <c r="E7" s="9" t="s">
         <v>60</v>
       </c>
@@ -2403,9 +2382,9 @@
       <c r="A8" s="9">
         <v>1</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
       <c r="E8" s="9" t="s">
         <v>58</v>
       </c>
@@ -2429,9 +2408,9 @@
       <c r="A9" s="9">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
       <c r="E9" s="9" t="s">
         <v>59</v>
       </c>
@@ -2455,13 +2434,13 @@
       <c r="A10" s="9">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="20" t="s">
         <v>203</v>
       </c>
       <c r="E10" s="9" t="s">
@@ -2485,9 +2464,9 @@
     </row>
     <row r="11" spans="1:16" s="11" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
       <c r="E11" s="9" t="s">
         <v>206</v>
       </c>
@@ -2511,9 +2490,9 @@
     </row>
     <row r="12" spans="1:16" s="11" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
       <c r="E12" s="9" t="s">
         <v>216</v>
       </c>
@@ -2535,11 +2514,11 @@
         <v>214</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19" t="s">
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20" t="s">
         <v>204</v>
       </c>
       <c r="E13" s="9" t="s">
@@ -2565,9 +2544,9 @@
     </row>
     <row r="14" spans="1:16" s="11" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
       <c r="E14" s="9" t="s">
         <v>222</v>
       </c>
@@ -2591,9 +2570,9 @@
     </row>
     <row r="15" spans="1:16" s="11" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
       <c r="E15" s="9" t="s">
         <v>223</v>
       </c>
@@ -2613,13 +2592,13 @@
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
     </row>
-    <row r="16" spans="1:16" s="11" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" s="11" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19" t="s">
+      <c r="B16" s="20"/>
+      <c r="C16" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="20" t="s">
         <v>233</v>
       </c>
       <c r="E16" s="9" t="s">
@@ -2643,9 +2622,9 @@
     </row>
     <row r="17" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
       <c r="E17" s="9" t="s">
         <v>240</v>
       </c>
@@ -2667,9 +2646,9 @@
     </row>
     <row r="18" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
       <c r="E18" s="9" t="s">
         <v>238</v>
       </c>
@@ -2691,9 +2670,9 @@
     </row>
     <row r="19" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
       <c r="E19" s="9" t="s">
         <v>239</v>
       </c>
@@ -2715,11 +2694,11 @@
         <v>244</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
       <c r="E20" s="9" t="s">
         <v>241</v>
       </c>
@@ -2741,9 +2720,9 @@
     </row>
     <row r="21" spans="1:12" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="18" t="s">
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="12" t="s">
         <v>250</v>
       </c>
       <c r="E21" s="9" t="s">
@@ -2766,14 +2745,14 @@
       <c r="L21" s="9"/>
     </row>
     <row r="22" spans="1:12" s="11" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="28"/>
-      <c r="B22" s="20" t="s">
+      <c r="A22" s="13"/>
+      <c r="B22" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="20" t="s">
         <v>339</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="20" t="s">
         <v>257</v>
       </c>
       <c r="E22" s="9" t="s">
@@ -2796,10 +2775,10 @@
       <c r="L22" s="9"/>
     </row>
     <row r="23" spans="1:12" s="11" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="28"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
       <c r="E23" s="9" t="s">
         <v>269</v>
       </c>
@@ -2820,10 +2799,10 @@
       <c r="L23" s="9"/>
     </row>
     <row r="24" spans="1:12" s="11" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="28"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
       <c r="E24" s="9" t="s">
         <v>270</v>
       </c>
@@ -2844,10 +2823,10 @@
       <c r="L24" s="9"/>
     </row>
     <row r="25" spans="1:12" s="11" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="28"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
       <c r="E25" s="9" t="s">
         <v>271</v>
       </c>
@@ -2868,10 +2847,10 @@
       <c r="L25" s="9"/>
     </row>
     <row r="26" spans="1:12" s="11" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="28"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
       <c r="E26" s="9" t="s">
         <v>272</v>
       </c>
@@ -2892,10 +2871,10 @@
       <c r="L26" s="9"/>
     </row>
     <row r="27" spans="1:12" s="11" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="28"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19" t="s">
+      <c r="A27" s="13"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20" t="s">
         <v>266</v>
       </c>
       <c r="E27" s="9" t="s">
@@ -2920,10 +2899,10 @@
       </c>
     </row>
     <row r="28" spans="1:12" s="11" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="28"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
       <c r="E28" s="9" t="s">
         <v>273</v>
       </c>
@@ -2946,10 +2925,10 @@
       </c>
     </row>
     <row r="29" spans="1:12" s="11" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="28"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
       <c r="E29" s="9" t="s">
         <v>274</v>
       </c>
@@ -2972,11 +2951,11 @@
       </c>
     </row>
     <row r="30" spans="1:12" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="29"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="24" t="s">
+      <c r="A30" s="14"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="9" t="s">
         <v>275</v>
       </c>
       <c r="F30" s="9" t="s">
@@ -2998,11 +2977,11 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="29"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="24" t="s">
+      <c r="A31" s="14"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="9" t="s">
         <v>276</v>
       </c>
       <c r="F31" s="9" t="s">
@@ -3024,13 +3003,13 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="29"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19" t="s">
+      <c r="A32" s="14"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="E32" s="24" t="s">
+      <c r="E32" s="9" t="s">
         <v>290</v>
       </c>
       <c r="F32" s="2" t="s">
@@ -3050,11 +3029,11 @@
       <c r="L32" s="2"/>
     </row>
     <row r="33" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A33" s="29"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="24" t="s">
+      <c r="A33" s="14"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="9" t="s">
         <v>291</v>
       </c>
       <c r="F33" s="2" t="s">
@@ -3074,11 +3053,11 @@
       <c r="L33" s="2"/>
     </row>
     <row r="34" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A34" s="29"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="24" t="s">
+      <c r="A34" s="14"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="9" t="s">
         <v>292</v>
       </c>
       <c r="F34" s="2" t="s">
@@ -3098,11 +3077,11 @@
       <c r="L34" s="2"/>
     </row>
     <row r="35" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A35" s="29"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="24" t="s">
+      <c r="A35" s="14"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="9" t="s">
         <v>293</v>
       </c>
       <c r="F35" s="2" t="s">
@@ -3122,11 +3101,11 @@
       <c r="L35" s="2"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="29"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="24" t="s">
+      <c r="A36" s="14"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="9" t="s">
         <v>294</v>
       </c>
       <c r="F36" s="2" t="s">
@@ -3146,13 +3125,13 @@
       <c r="L36" s="2"/>
     </row>
     <row r="37" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A37" s="29"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19" t="s">
+      <c r="A37" s="14"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="E37" s="24" t="s">
+      <c r="E37" s="9" t="s">
         <v>303</v>
       </c>
       <c r="F37" s="2" t="s">
@@ -3172,11 +3151,11 @@
       <c r="L37" s="2"/>
     </row>
     <row r="38" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A38" s="29"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="24" t="s">
+      <c r="A38" s="14"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="9" t="s">
         <v>304</v>
       </c>
       <c r="F38" s="2" t="s">
@@ -3196,11 +3175,10 @@
       <c r="L38" s="2"/>
     </row>
     <row r="39" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A39" s="25"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="24" t="s">
+      <c r="B39" s="18"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="9" t="s">
         <v>306</v>
       </c>
       <c r="F39" s="2" t="s">
@@ -3212,7 +3190,7 @@
       <c r="H39" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="I39" s="30" t="s">
+      <c r="I39" s="2" t="s">
         <v>311</v>
       </c>
       <c r="J39" s="2"/>
@@ -3220,11 +3198,10 @@
       <c r="L39" s="2"/>
     </row>
     <row r="40" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A40" s="25"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="24" t="s">
+      <c r="B40" s="18"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="9" t="s">
         <v>305</v>
       </c>
       <c r="F40" s="2" t="s">
@@ -3236,7 +3213,7 @@
       <c r="H40" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="I40" s="30" t="s">
+      <c r="I40" s="2" t="s">
         <v>311</v>
       </c>
       <c r="J40" s="2"/>
@@ -3244,11 +3221,10 @@
       <c r="L40" s="2"/>
     </row>
     <row r="41" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A41" s="25"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="24" t="s">
+      <c r="B41" s="18"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="9" t="s">
         <v>307</v>
       </c>
       <c r="F41" s="2" t="s">
@@ -3260,7 +3236,7 @@
       <c r="H41" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="I41" s="30" t="s">
+      <c r="I41" s="2" t="s">
         <v>311</v>
       </c>
       <c r="J41" s="2"/>
@@ -3268,49 +3244,47 @@
       <c r="L41" s="2"/>
     </row>
     <row r="42" spans="1:12" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A42" s="25"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="24" t="s">
+      <c r="B42" s="18"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="F42" s="24" t="s">
+      <c r="F42" s="9" t="s">
         <v>313</v>
       </c>
       <c r="G42" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="H42" s="24" t="s">
+      <c r="H42" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="I42" s="30" t="s">
+      <c r="I42" s="2" t="s">
         <v>215</v>
       </c>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
-      <c r="L42" s="30" t="s">
+      <c r="L42" s="2" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A43" s="25"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="24" t="s">
+      <c r="B43" s="18"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="F43" s="24" t="s">
+      <c r="F43" s="9" t="s">
         <v>313</v>
       </c>
       <c r="G43" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="H43" s="24" t="s">
+      <c r="H43" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="I43" s="30" t="s">
+      <c r="I43" s="2" t="s">
         <v>215</v>
       </c>
       <c r="J43" s="2"/>
@@ -3318,23 +3292,22 @@
       <c r="L43" s="2"/>
     </row>
     <row r="44" spans="1:12" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A44" s="25"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="24" t="s">
+      <c r="B44" s="18"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="F44" s="24" t="s">
+      <c r="F44" s="9" t="s">
         <v>313</v>
       </c>
       <c r="G44" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="H44" s="24" t="s">
+      <c r="H44" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="I44" s="30" t="s">
+      <c r="I44" s="2" t="s">
         <v>215</v>
       </c>
       <c r="J44" s="2"/>
@@ -3342,23 +3315,22 @@
       <c r="L44" s="2"/>
     </row>
     <row r="45" spans="1:12" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A45" s="25"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="24" t="s">
+      <c r="B45" s="18"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="F45" s="24" t="s">
+      <c r="F45" s="9" t="s">
         <v>313</v>
       </c>
       <c r="G45" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="H45" s="24" t="s">
+      <c r="H45" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="I45" s="30" t="s">
+      <c r="I45" s="2" t="s">
         <v>215</v>
       </c>
       <c r="J45" s="2"/>
@@ -3366,23 +3338,22 @@
       <c r="L45" s="2"/>
     </row>
     <row r="46" spans="1:12" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A46" s="25"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="24" t="s">
+      <c r="B46" s="18"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="F46" s="24" t="s">
+      <c r="F46" s="9" t="s">
         <v>313</v>
       </c>
       <c r="G46" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="H46" s="24" t="s">
+      <c r="H46" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="I46" s="30" t="s">
+      <c r="I46" s="2" t="s">
         <v>213</v>
       </c>
       <c r="J46" s="2"/>
@@ -3392,23 +3363,22 @@
       </c>
     </row>
     <row r="47" spans="1:12" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A47" s="25"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="24" t="s">
+      <c r="B47" s="18"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="F47" s="24" t="s">
+      <c r="F47" s="9" t="s">
         <v>313</v>
       </c>
       <c r="G47" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="H47" s="24" t="s">
+      <c r="H47" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="I47" s="30" t="s">
+      <c r="I47" s="2" t="s">
         <v>215</v>
       </c>
       <c r="J47" s="2"/>
@@ -3416,469 +3386,313 @@
       <c r="L47" s="2"/>
     </row>
     <row r="48" spans="1:12" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A48" s="25"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="24" t="s">
+      <c r="B48" s="18"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="F48" s="24" t="s">
+      <c r="F48" s="9" t="s">
         <v>313</v>
       </c>
       <c r="G48" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="H48" s="24" t="s">
+      <c r="H48" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="I48" s="30" t="s">
+      <c r="I48" s="2" t="s">
         <v>215</v>
       </c>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="1:12" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A49" s="25"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="24" t="s">
+    <row r="49" spans="2:12" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B49" s="18"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="F49" s="24" t="s">
+      <c r="F49" s="9" t="s">
         <v>313</v>
       </c>
       <c r="G49" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="H49" s="24" t="s">
+      <c r="H49" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="I49" s="30" t="s">
+      <c r="I49" s="2" t="s">
         <v>215</v>
       </c>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
-    <row r="50" spans="1:12" ht="66" x14ac:dyDescent="0.3">
-      <c r="A50" s="25"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="19" t="s">
+    <row r="50" spans="2:12" ht="66" x14ac:dyDescent="0.3">
+      <c r="B50" s="18"/>
+      <c r="C50" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="D50" s="31" t="s">
+      <c r="D50" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="E50" s="24" t="s">
+      <c r="E50" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="F50" s="24" t="s">
+      <c r="F50" s="9" t="s">
         <v>308</v>
       </c>
       <c r="G50" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="H50" s="32" t="s">
+      <c r="H50" t="s">
         <v>335</v>
       </c>
-      <c r="I50" s="30" t="s">
+      <c r="I50" s="2" t="s">
         <v>312</v>
       </c>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
-      <c r="L50" s="30" t="s">
+      <c r="L50" s="2" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="66" x14ac:dyDescent="0.3">
-      <c r="A51" s="25"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="24" t="s">
+    <row r="51" spans="2:12" ht="66" x14ac:dyDescent="0.3">
+      <c r="B51" s="19"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="F51" s="24" t="s">
+      <c r="F51" s="9" t="s">
         <v>308</v>
       </c>
       <c r="G51" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="H51" s="24" t="s">
+      <c r="H51" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="I51" s="30" t="s">
+      <c r="I51" s="2" t="s">
         <v>287</v>
       </c>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
     </row>
-    <row r="52" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A52" s="25"/>
-      <c r="B52" s="25" t="s">
+    <row r="52" spans="2:12" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
         <v>340</v>
       </c>
-      <c r="C52" s="23" t="s">
+      <c r="C52" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="D52" s="25"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="25"/>
-      <c r="K52" s="25"/>
-      <c r="L52" s="25"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A53" s="25"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="23"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="27"/>
-      <c r="J53" s="25"/>
-      <c r="K53" s="25"/>
-      <c r="L53" s="25"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A54" s="25"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="23" t="s">
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C54" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="D54" s="25"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="26"/>
-      <c r="I54" s="27"/>
-      <c r="J54" s="25"/>
-      <c r="K54" s="25"/>
-      <c r="L54" s="25"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A55" s="25"/>
-      <c r="B55" s="25"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="23"/>
-      <c r="H55" s="26"/>
-      <c r="I55" s="27"/>
-      <c r="J55" s="25"/>
-      <c r="K55" s="25"/>
-      <c r="L55" s="25"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A56" s="25"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="25" t="s">
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
         <v>343</v>
       </c>
-      <c r="D56" s="25"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="26"/>
-      <c r="I56" s="27"/>
-      <c r="J56" s="25"/>
-      <c r="K56" s="25"/>
-      <c r="L56" s="25"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A57" s="25"/>
-      <c r="B57" s="25"/>
-      <c r="C57" s="25"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="26"/>
-      <c r="I57" s="27"/>
-      <c r="J57" s="25"/>
-      <c r="K57" s="25"/>
-      <c r="L57" s="25"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A58" s="25"/>
-      <c r="B58" s="25"/>
-      <c r="C58" s="25" t="s">
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C58" t="s">
         <v>344</v>
       </c>
-      <c r="D58" s="25" t="s">
+      <c r="D58" t="s">
         <v>345</v>
       </c>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="26"/>
-      <c r="I58" s="27"/>
-      <c r="J58" s="25"/>
-      <c r="K58" s="25"/>
-      <c r="L58" s="25"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A59" s="25"/>
-      <c r="B59" s="25"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="26"/>
-      <c r="I59" s="27"/>
-      <c r="J59" s="25"/>
-      <c r="K59" s="25"/>
-      <c r="L59" s="25"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A60" s="25"/>
-      <c r="B60" s="25" t="s">
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
         <v>347</v>
       </c>
-      <c r="C60" s="27" t="s">
+      <c r="C60" t="s">
         <v>348</v>
       </c>
-      <c r="D60" s="27"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="23"/>
-      <c r="H60" s="26"/>
-      <c r="I60" s="27"/>
-      <c r="J60" s="25"/>
-      <c r="K60" s="25"/>
-      <c r="L60" s="25"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A61" s="25"/>
-      <c r="C61" s="27" t="s">
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C61" t="s">
         <v>349</v>
       </c>
-      <c r="D61" s="25"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="26"/>
-      <c r="I61" s="27"/>
-      <c r="J61" s="25"/>
-      <c r="K61" s="25"/>
-      <c r="L61" s="25"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A62" s="25"/>
-      <c r="B62" s="25" t="s">
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
         <v>350</v>
       </c>
-      <c r="C62" s="27"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="26"/>
-      <c r="I62" s="27"/>
-      <c r="J62" s="25"/>
-      <c r="K62" s="25"/>
-      <c r="L62" s="25"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A63" s="25"/>
-      <c r="B63" s="25" t="s">
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
         <v>351</v>
       </c>
-      <c r="C63" s="27"/>
-      <c r="D63" s="25"/>
-      <c r="E63" s="26"/>
-      <c r="F63" s="26"/>
-      <c r="G63" s="23"/>
-      <c r="H63" s="26"/>
-      <c r="I63" s="27"/>
-      <c r="J63" s="25"/>
-      <c r="K63" s="25"/>
-      <c r="L63" s="25"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A64" s="25"/>
-      <c r="B64" s="25"/>
-      <c r="C64" s="25"/>
-      <c r="D64" s="25"/>
-      <c r="E64" s="26"/>
-      <c r="F64" s="26"/>
-      <c r="G64" s="23"/>
-      <c r="H64" s="26"/>
-      <c r="I64" s="27"/>
-      <c r="J64" s="25"/>
-      <c r="K64" s="25"/>
-      <c r="L64" s="25"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A65" s="25"/>
-      <c r="B65" s="25"/>
-      <c r="C65" s="25"/>
-      <c r="D65" s="25"/>
-      <c r="E65" s="26"/>
-      <c r="F65" s="26"/>
-      <c r="G65" s="23"/>
-      <c r="H65" s="26"/>
-      <c r="I65" s="27"/>
-      <c r="J65" s="25"/>
-      <c r="K65" s="25"/>
-      <c r="L65" s="25"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A66" s="25"/>
-      <c r="B66" s="25"/>
-      <c r="C66" s="25"/>
-      <c r="D66" s="25"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="26"/>
-      <c r="G66" s="23"/>
-      <c r="H66" s="26"/>
-      <c r="I66" s="27"/>
-      <c r="J66" s="25"/>
-      <c r="K66" s="25"/>
-      <c r="L66" s="25"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A67" s="25"/>
-      <c r="B67" s="25"/>
-      <c r="C67" s="25"/>
-      <c r="D67" s="25"/>
-      <c r="E67" s="26"/>
-      <c r="F67" s="26"/>
-      <c r="G67" s="23"/>
-      <c r="H67" s="26"/>
-      <c r="I67" s="27"/>
-      <c r="J67" s="25"/>
-      <c r="K67" s="25"/>
-      <c r="L67" s="25"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A68" s="25"/>
-      <c r="B68" s="25"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="25"/>
-      <c r="E68" s="26"/>
-      <c r="F68" s="26"/>
-      <c r="G68" s="23"/>
-      <c r="H68" s="26"/>
-      <c r="I68" s="27"/>
-      <c r="J68" s="25"/>
-      <c r="K68" s="25"/>
-      <c r="L68" s="25"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A69" s="25"/>
-      <c r="B69" s="25"/>
-      <c r="C69" s="25"/>
-      <c r="D69" s="25"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="25"/>
-      <c r="K69" s="25"/>
-      <c r="L69" s="25"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A70" s="25"/>
-      <c r="B70" s="25"/>
-      <c r="C70" s="25"/>
-      <c r="D70" s="25"/>
-      <c r="E70" s="26"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="25"/>
-      <c r="J70" s="25"/>
-      <c r="K70" s="25"/>
-      <c r="L70" s="25"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A71" s="25"/>
-      <c r="E71" s="26"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B72" s="12" t="s">
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E69" s="11"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E70" s="11"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E71" s="11"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B72" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C72" s="12"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="12"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1</v>
       </c>
-      <c r="B73" s="12" t="s">
+      <c r="B73" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C73" s="21"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="21"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>2</v>
       </c>
-      <c r="B74" s="12" t="s">
+      <c r="B74" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C74" s="12"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="12"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C74" s="21"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="21"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>3</v>
       </c>
-      <c r="B75" s="12" t="s">
+      <c r="B75" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="C75" s="12"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="12"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C75" s="21"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="21"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>4</v>
       </c>
-      <c r="B76" s="12" t="s">
+      <c r="B76" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="12"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C76" s="21"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="21"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="B22:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D27:D31"/>
-    <mergeCell ref="D37:D49"/>
-    <mergeCell ref="D32:D36"/>
-    <mergeCell ref="C22:C49"/>
     <mergeCell ref="B75:F75"/>
     <mergeCell ref="B76:F76"/>
     <mergeCell ref="D6:D9"/>
@@ -3894,6 +3708,13 @@
     <mergeCell ref="C16:C21"/>
     <mergeCell ref="B10:B21"/>
     <mergeCell ref="D22:D26"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="B22:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="D37:D49"/>
+    <mergeCell ref="D32:D36"/>
+    <mergeCell ref="C22:C49"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5040,61 +4861,61 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5154,7 +4975,7 @@
       <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="16" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -5169,7 +4990,7 @@
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="14"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="2" t="s">
         <v>32</v>
       </c>
@@ -5182,7 +5003,7 @@
         <f t="shared" ref="A7:A19" si="0">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="14"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="2" t="s">
         <v>34</v>
       </c>
@@ -5195,7 +5016,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="14"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="2" t="s">
         <v>33</v>
       </c>
@@ -5204,34 +5025,34 @@
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="16">
+      <c r="A9" s="25">
         <f>A8+1</f>
         <v>5</v>
       </c>
-      <c r="B9" s="14"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="16"/>
-      <c r="B10" s="14"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <f>A9+1</f>
         <v>6</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="24" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -5246,7 +5067,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B12" s="14"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="2" t="s">
         <v>38</v>
       </c>
@@ -5259,7 +5080,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B13" s="14"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="2" t="s">
         <v>39</v>
       </c>
@@ -5272,7 +5093,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B14" s="14"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="2" t="s">
         <v>40</v>
       </c>
@@ -5285,7 +5106,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B15" s="14"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="2" t="s">
         <v>41</v>
       </c>
@@ -5298,7 +5119,7 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="24" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -5313,7 +5134,7 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B17" s="14"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="2" t="s">
         <v>43</v>
       </c>
@@ -5326,7 +5147,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B18" s="14"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="2" t="s">
         <v>44</v>
       </c>
@@ -5335,61 +5156,54 @@
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="16">
+      <c r="A19" s="25">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="24" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="16"/>
-      <c r="B20" s="14"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="24"/>
       <c r="C20" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="16">
+      <c r="A21" s="25">
         <v>15</v>
       </c>
-      <c r="B21" s="14"/>
+      <c r="B21" s="24"/>
       <c r="C21" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="16"/>
-      <c r="B22" s="14"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="F21:F22"/>
@@ -5399,6 +5213,13 @@
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="E21:E22"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
